--- a/5. Sumar.si, Sumar.si.conjunto.xlsx
+++ b/5. Sumar.si, Sumar.si.conjunto.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Data World\Programas\Excel Básico a Avanzado\Carpeta para compartir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7922b0b09328d329/Data World/Programas/Excel Básico a Avanzado/Carpeta para compartir/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E34FEE-C8BF-4422-B58F-E03E88FB0E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -3193,27 +3193,27 @@
       </c>
       <c r="C17" s="1">
         <f ca="1">RANDBETWEEN(1000,10000)</f>
-        <v>3624</v>
+        <v>6371</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" ref="D17:H20" ca="1" si="0">RANDBETWEEN(1000,10000)</f>
-        <v>3759</v>
+        <v>5765</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9378</v>
+        <v>7242</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9744</v>
+        <v>4404</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3693</v>
+        <v>2695</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1828</v>
+        <v>3249</v>
       </c>
       <c r="I17" s="11"/>
     </row>
@@ -3223,27 +3223,27 @@
       </c>
       <c r="C18" s="1">
         <f t="shared" ref="C18:C20" ca="1" si="1">RANDBETWEEN(1000,10000)</f>
-        <v>7101</v>
+        <v>2230</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4787</v>
+        <v>5354</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9130</v>
+        <v>7932</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4893</v>
+        <v>5408</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3170</v>
+        <v>7575</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5502</v>
+        <v>9846</v>
       </c>
       <c r="I18" s="12"/>
     </row>
@@ -3253,27 +3253,27 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5549</v>
+        <v>5485</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2802</v>
+        <v>8623</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8509</v>
+        <v>6349</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2263</v>
+        <v>8800</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8363</v>
+        <v>4933</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2623</v>
+        <v>4385</v>
       </c>
       <c r="I19" s="12"/>
     </row>
@@ -3283,27 +3283,27 @@
       </c>
       <c r="C20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9215</v>
+        <v>3799</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1525</v>
+        <v>2036</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8414</v>
+        <v>9941</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9692</v>
+        <v>6787</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6584</v>
+        <v>7216</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9401</v>
+        <v>1433</v>
       </c>
       <c r="I20" s="12"/>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="C16" s="1">
         <f ca="1">RANDBETWEEN(500,1000)</f>
-        <v>564</v>
+        <v>956</v>
       </c>
       <c r="D16" s="73"/>
       <c r="E16" s="45" t="str">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="C17" s="1">
         <f t="shared" ref="C17:C27" ca="1" si="0">RANDBETWEEN(500,1000)</f>
-        <v>821</v>
+        <v>998</v>
       </c>
       <c r="D17" s="73"/>
       <c r="E17" s="45" t="str">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="C18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>651</v>
+        <v>531</v>
       </c>
       <c r="D18" s="73"/>
       <c r="E18" s="45" t="str">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>805</v>
+        <v>993</v>
       </c>
       <c r="D19" s="73"/>
       <c r="E19" s="45" t="str">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="C20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>600</v>
+        <v>703</v>
       </c>
       <c r="D20" s="73"/>
       <c r="E20" s="45" t="str">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="C21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>691</v>
+        <v>876</v>
       </c>
       <c r="D21" s="73"/>
       <c r="E21" s="45" t="str">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="C22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="D22" s="73"/>
       <c r="E22" s="45" t="str">
@@ -3483,7 +3483,7 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>710</v>
+        <v>528</v>
       </c>
       <c r="D23" s="73"/>
       <c r="E23" s="45" t="str">
@@ -3497,7 +3497,7 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>919</v>
+        <v>692</v>
       </c>
       <c r="D24" s="73"/>
       <c r="E24" s="45" t="str">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>636</v>
+        <v>766</v>
       </c>
       <c r="D25" s="73"/>
       <c r="E25" s="45" t="str">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="C26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>790</v>
+        <v>552</v>
       </c>
       <c r="D26" s="73"/>
       <c r="E26" s="45" t="str">
@@ -3539,7 +3539,7 @@
       </c>
       <c r="C27" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>697</v>
+        <v>519</v>
       </c>
       <c r="D27" s="73"/>
       <c r="E27" s="45" t="str">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="C28" s="1">
         <f ca="1">SUM(C16:C27)</f>
-        <v>8691</v>
+        <v>8902</v>
       </c>
       <c r="D28" s="1"/>
     </row>
@@ -3637,11 +3637,11 @@
       </c>
       <c r="G15" s="18">
         <f ca="1">TODAY()</f>
-        <v>45714</v>
+        <v>45721</v>
       </c>
       <c r="H15" s="19">
         <f ca="1">F15-G15</f>
-        <v>-45714</v>
+        <v>-45721</v>
       </c>
       <c r="K15" s="18"/>
       <c r="L15" s="93"/>
@@ -3662,11 +3662,11 @@
       </c>
       <c r="G16" s="18">
         <f t="shared" ref="G16:G28" ca="1" si="1">TODAY()</f>
-        <v>45714</v>
+        <v>45721</v>
       </c>
       <c r="H16" s="19">
         <f t="shared" ref="H16:H28" ca="1" si="2">F16-G16</f>
-        <v>-45714</v>
+        <v>-45721</v>
       </c>
       <c r="K16" s="18"/>
     </row>
@@ -3686,11 +3686,11 @@
       </c>
       <c r="G17" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>45714</v>
+        <v>45721</v>
       </c>
       <c r="H17" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>-45714</v>
+        <v>-45721</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -3709,11 +3709,11 @@
       </c>
       <c r="G18" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>45714</v>
+        <v>45721</v>
       </c>
       <c r="H18" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>-45714</v>
+        <v>-45721</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -3732,11 +3732,11 @@
       </c>
       <c r="G19" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>45714</v>
+        <v>45721</v>
       </c>
       <c r="H19" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>-45714</v>
+        <v>-45721</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3755,11 +3755,11 @@
       </c>
       <c r="G20" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>45714</v>
+        <v>45721</v>
       </c>
       <c r="H20" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>-45714</v>
+        <v>-45721</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -3778,11 +3778,11 @@
       </c>
       <c r="G21" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>45714</v>
+        <v>45721</v>
       </c>
       <c r="H21" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>-45714</v>
+        <v>-45721</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3801,11 +3801,11 @@
       </c>
       <c r="G22" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>45714</v>
+        <v>45721</v>
       </c>
       <c r="H22" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>-45714</v>
+        <v>-45721</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3824,11 +3824,11 @@
       </c>
       <c r="G23" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>45714</v>
+        <v>45721</v>
       </c>
       <c r="H23" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>-45714</v>
+        <v>-45721</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3847,11 +3847,11 @@
       </c>
       <c r="G24" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>45714</v>
+        <v>45721</v>
       </c>
       <c r="H24" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>-45714</v>
+        <v>-45721</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -3870,11 +3870,11 @@
       </c>
       <c r="G25" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>45714</v>
+        <v>45721</v>
       </c>
       <c r="H25" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>-45714</v>
+        <v>-45721</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -3893,11 +3893,11 @@
       </c>
       <c r="G26" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>45714</v>
+        <v>45721</v>
       </c>
       <c r="H26" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>-45714</v>
+        <v>-45721</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3916,11 +3916,11 @@
       </c>
       <c r="G27" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>45714</v>
+        <v>45721</v>
       </c>
       <c r="H27" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>-45714</v>
+        <v>-45721</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -3939,11 +3939,11 @@
       </c>
       <c r="G28" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>45714</v>
+        <v>45721</v>
       </c>
       <c r="H28" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>-45714</v>
+        <v>-45721</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -58611,15 +58611,15 @@
       </c>
       <c r="F16" s="18">
         <f ca="1">TODAY()+RANDBETWEEN(5,40)*RANDBETWEEN(-1,1)</f>
-        <v>45676</v>
+        <v>45690</v>
       </c>
       <c r="G16" s="18">
         <f ca="1">TODAY()</f>
-        <v>45714</v>
+        <v>45721</v>
       </c>
       <c r="H16" s="19">
         <f ca="1">F16-G16</f>
-        <v>-38</v>
+        <v>-31</v>
       </c>
       <c r="K16" s="62" t="s">
         <v>53</v>
@@ -58642,15 +58642,15 @@
       </c>
       <c r="F17" s="18">
         <f t="shared" ref="F17:F29" ca="1" si="0">TODAY()+RANDBETWEEN(5,40)*RANDBETWEEN(-1,1)</f>
-        <v>45714</v>
+        <v>45750</v>
       </c>
       <c r="G17" s="18">
         <f t="shared" ref="G17:G29" ca="1" si="1">TODAY()</f>
-        <v>45714</v>
+        <v>45721</v>
       </c>
       <c r="H17" s="19">
         <f t="shared" ref="H17:H29" ca="1" si="2">F17-G17</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="K17" s="62" t="s">
         <v>109</v>
@@ -58673,15 +58673,15 @@
       </c>
       <c r="F18" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>45735</v>
+        <v>45721</v>
       </c>
       <c r="G18" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>45714</v>
+        <v>45721</v>
       </c>
       <c r="H18" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K18" s="62" t="s">
         <v>110</v>
@@ -58704,15 +58704,15 @@
       </c>
       <c r="F19" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>45714</v>
+        <v>45761</v>
       </c>
       <c r="G19" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>45714</v>
+        <v>45721</v>
       </c>
       <c r="H19" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K19" s="62" t="s">
         <v>111</v>
@@ -58732,15 +58732,15 @@
       </c>
       <c r="F20" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>45727</v>
+        <v>45758</v>
       </c>
       <c r="G20" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>45714</v>
+        <v>45721</v>
       </c>
       <c r="H20" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="K20" s="83" t="s">
         <v>113</v>
@@ -58763,15 +58763,15 @@
       </c>
       <c r="F21" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>45714</v>
+        <v>45738</v>
       </c>
       <c r="G21" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>45714</v>
+        <v>45721</v>
       </c>
       <c r="H21" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L21" s="77"/>
     </row>
@@ -58787,15 +58787,15 @@
       </c>
       <c r="F22" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>45751</v>
+        <v>45734</v>
       </c>
       <c r="G22" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>45714</v>
+        <v>45721</v>
       </c>
       <c r="H22" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="L22" s="79"/>
     </row>
@@ -58811,15 +58811,15 @@
       </c>
       <c r="F23" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>45674</v>
+        <v>45721</v>
       </c>
       <c r="G23" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>45714</v>
+        <v>45721</v>
       </c>
       <c r="H23" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>-40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.25">
@@ -58834,15 +58834,15 @@
       </c>
       <c r="F24" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>45748</v>
+        <v>45738</v>
       </c>
       <c r="G24" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>45714</v>
+        <v>45721</v>
       </c>
       <c r="H24" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J24" s="76"/>
       <c r="L24" s="80"/>
@@ -58859,11 +58859,11 @@
       </c>
       <c r="F25" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>45714</v>
+        <v>45721</v>
       </c>
       <c r="G25" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>45714</v>
+        <v>45721</v>
       </c>
       <c r="H25" s="19">
         <f t="shared" ca="1" si="2"/>
@@ -58882,15 +58882,15 @@
       </c>
       <c r="F26" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>45714</v>
+        <v>45691</v>
       </c>
       <c r="G26" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>45714</v>
+        <v>45721</v>
       </c>
       <c r="H26" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="J26" s="81"/>
     </row>
@@ -58906,15 +58906,15 @@
       </c>
       <c r="F27" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>45714</v>
+        <v>45761</v>
       </c>
       <c r="G27" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>45714</v>
+        <v>45721</v>
       </c>
       <c r="H27" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.25">
@@ -58929,15 +58929,15 @@
       </c>
       <c r="F28" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>45693</v>
+        <v>45721</v>
       </c>
       <c r="G28" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>45714</v>
+        <v>45721</v>
       </c>
       <c r="H28" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>-21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="3:13" x14ac:dyDescent="0.25">
@@ -58952,15 +58952,15 @@
       </c>
       <c r="F29" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>45732</v>
+        <v>45685</v>
       </c>
       <c r="G29" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>45714</v>
+        <v>45721</v>
       </c>
       <c r="H29" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="30" spans="3:13" x14ac:dyDescent="0.25">
